--- a/tmp/EP14/EP14.doc-total-recap.xlsx
+++ b/tmp/EP14/EP14.doc-total-recap.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6">
